--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planned" sheetId="1" r:id="rId1"/>
+    <sheet name="Bought" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -43,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0" shapeId="0">
+    <comment ref="A38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,10 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
-  <si>
-    <t>Partlist</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>PCB</t>
   </si>
@@ -329,9 +327,6 @@
     <t>C5, C6</t>
   </si>
   <si>
-    <t>Kondensator ??</t>
-  </si>
-  <si>
     <t>710-885012207016</t>
   </si>
   <si>
@@ -339,6 +334,42 @@
   </si>
   <si>
     <t>pcbway.de</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>Kondensator, depending on NFC inductor</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>Cost Total</t>
+  </si>
+  <si>
+    <t>Shipping Costs</t>
+  </si>
+  <si>
+    <t>6 $</t>
+  </si>
+  <si>
+    <t>101 $</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>Led stripes</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -500,12 +531,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -521,6 +546,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
@@ -827,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,55 +880,55 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="13">
-        <v>43216</v>
+        <v>43218</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="E3" s="23">
+        <f>C60</f>
+        <v>38.351836565096953</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="25">
-        <f>C62</f>
-        <v>37.441593749999996</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -909,324 +940,324 @@
         <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="5">
         <f>E7*$C$3</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J7" s="6">
         <f>IF(I7&gt;=$G$6,IF(I7&gt;=$H$6,H7*I7,G7*I7),I7*F7)</f>
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1.66</v>
+      </c>
+      <c r="H8" s="21">
+        <v>1.66</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" ref="I8:I26" si="0">E8*$C$3</f>
+        <v>19</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" ref="J8:J24" si="1">IF(I8&gt;=$G$6,IF(I8&gt;=$H$6,H8*I8,G8*I8),I8*F8)</f>
+        <v>31.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1.96</v>
-      </c>
-      <c r="G8" s="23">
-        <v>1.66</v>
-      </c>
-      <c r="H8" s="23">
-        <v>1.66</v>
-      </c>
-      <c r="I8" s="22">
-        <f t="shared" ref="I8:I29" si="0">E8*$C$3</f>
-        <v>16</v>
-      </c>
-      <c r="J8" s="23">
-        <f t="shared" ref="J8:J29" si="1">IF(I8&gt;=$G$6,IF(I8&gt;=$H$6,H8*I8,G8*I8),I8*F8)</f>
-        <v>26.56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="B9" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1.27</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1.08</v>
+      </c>
+      <c r="H9" s="21">
+        <v>1.08</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="1"/>
+        <v>20.520000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="B10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1.27</v>
-      </c>
-      <c r="G9" s="23">
-        <v>1.08</v>
-      </c>
-      <c r="H9" s="23">
-        <v>1.08</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1.34</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H10" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I10" s="20">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J9" s="23">
+        <v>19</v>
+      </c>
+      <c r="J10" s="21">
         <f t="shared" si="1"/>
-        <v>17.28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="22" t="s">
+        <v>21.849999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23">
-        <v>1.34</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="B11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2.56</v>
+      </c>
+      <c r="G11" s="21">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H11" s="21">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="1"/>
+        <v>41.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="1"/>
+        <v>13.204999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.115</v>
+      </c>
+      <c r="G13" s="21">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H13" s="21">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="1"/>
+        <v>3.762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H10" s="23">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I10" s="22">
+      <c r="G14" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J10" s="23">
+        <v>19</v>
+      </c>
+      <c r="J14" s="21">
         <f t="shared" si="1"/>
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23">
-        <v>2.56</v>
-      </c>
-      <c r="G11" s="23">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="H11" s="23">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="I11" s="22">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="I15" s="20">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J11" s="23">
+        <v>19</v>
+      </c>
+      <c r="J15" s="21">
         <f t="shared" si="1"/>
-        <v>34.880000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="H12" s="23">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="I12" s="22">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J12" s="23">
-        <f t="shared" si="1"/>
-        <v>11.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="22">
-        <v>2</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0.115</v>
-      </c>
-      <c r="G13" s="23">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="H13" s="23">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="I13" s="22">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J13" s="23">
-        <f t="shared" si="1"/>
-        <v>3.1680000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0.92</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0.92</v>
-      </c>
-      <c r="I14" s="22">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J14" s="23">
-        <f t="shared" si="1"/>
-        <v>14.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="G15" s="23">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="H15" s="23">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="I15" s="22">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J15" s="23">
-        <f t="shared" si="1"/>
-        <v>15.151999999999999</v>
+        <v>17.992999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1238,7 +1269,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="1"/>
@@ -1247,10 +1278,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1262,7 +1293,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="5">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="1"/>
@@ -1271,10 +1302,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1286,7 +1317,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="1"/>
@@ -1295,10 +1326,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1310,7 +1341,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="1"/>
@@ -1319,10 +1350,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1334,7 +1365,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="5">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="1"/>
@@ -1343,10 +1374,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1358,7 +1389,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="5">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="1"/>
@@ -1366,147 +1397,147 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="20">
+        <v>2</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.377</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0.377</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I22" s="20">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="J22" s="21">
+        <f t="shared" si="1"/>
+        <v>12.882000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="20">
+        <v>3</v>
+      </c>
+      <c r="F23" s="21">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G23" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H23" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I23" s="20">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="J23" s="21">
+        <f t="shared" si="1"/>
+        <v>4.8450000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="20">
+        <v>2</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0.184</v>
+      </c>
+      <c r="G24" s="21">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H24" s="21">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" si="1"/>
+        <v>2.698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="22">
-        <v>2</v>
-      </c>
-      <c r="F22" s="23">
-        <v>0.377</v>
-      </c>
-      <c r="G22" s="23">
-        <v>0.377</v>
-      </c>
-      <c r="H22" s="23">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="B25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20">
+        <v>1</v>
+      </c>
+      <c r="F26" s="21">
+        <v>25</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="20">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J22" s="23">
-        <f t="shared" si="1"/>
-        <v>10.848000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="22">
-        <v>3</v>
-      </c>
-      <c r="F23" s="23">
-        <v>9.4E-2</v>
-      </c>
-      <c r="G23" s="23">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H23" s="23">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="I23" s="22">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="J23" s="23">
-        <f t="shared" si="1"/>
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="22">
-        <v>2</v>
-      </c>
-      <c r="F24" s="23">
-        <v>0.184</v>
-      </c>
-      <c r="G24" s="23">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="H24" s="23">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="I24" s="22">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J24" s="23">
-        <f t="shared" si="1"/>
-        <v>2.2719999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22">
-        <v>1</v>
-      </c>
-      <c r="F26" s="23">
-        <v>25</v>
-      </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="22">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J26" s="23">
+        <v>19</v>
+      </c>
+      <c r="J26" s="21">
         <f>F26/I26</f>
-        <v>1.5625</v>
+        <v>1.3157894736842106</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1522,638 +1553,669 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8">
-        <f>SUM(J7:J29)</f>
-        <v>224.04250000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="F32" s="15" t="str">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8">
+        <f>SUM(J7:J27)</f>
+        <v>284.51078947368421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="F30" s="27" t="str">
         <f>F5</f>
         <v>Price per piece for</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>10</v>
+      </c>
+      <c r="H31" s="4">
+        <v>20</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1</v>
+      </c>
+      <c r="F32" s="21">
+        <v>6.2</v>
+      </c>
+      <c r="G32" s="21">
+        <v>6.2</v>
+      </c>
+      <c r="H32" s="21">
+        <v>6.2</v>
+      </c>
+      <c r="I32" s="20">
+        <f>E32*$C$3</f>
+        <v>19</v>
+      </c>
+      <c r="J32" s="21">
+        <f>IF(I32&gt;=$G$31,IF(I32&gt;=$H$31,H32*I32,G32*I32),I32*F32)</f>
+        <v>117.8</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4">
-        <v>10</v>
-      </c>
-      <c r="H33" s="4">
-        <v>20</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>10</v>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="I33" s="15">
+        <f t="shared" ref="I33:I35" si="2">E33*$C$3</f>
+        <v>19</v>
+      </c>
+      <c r="J33" s="16">
+        <f>IF(I33&gt;=$G$31,IF(I33&gt;=$H$31,H33*I33,G33*I33),I33*F33)</f>
+        <v>13.299999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="22">
-        <v>1</v>
-      </c>
-      <c r="F34" s="23">
-        <v>6.2</v>
-      </c>
-      <c r="G34" s="23">
-        <v>6.2</v>
-      </c>
-      <c r="H34" s="23">
-        <v>6.2</v>
-      </c>
-      <c r="I34" s="22">
-        <f>E34*$C$3</f>
-        <v>16</v>
-      </c>
-      <c r="J34" s="23">
-        <f>IF(I34&gt;=$G$33,IF(I34&gt;=$H$33,H34*I34,G34*I34),I34*F34)</f>
-        <v>99.2</v>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="20">
+        <v>132030</v>
+      </c>
+      <c r="E34" s="20">
+        <v>1</v>
+      </c>
+      <c r="F34" s="21">
+        <v>54</v>
+      </c>
+      <c r="G34" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="H34" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="I34" s="20">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="J34" s="21">
+        <f>F34/I34</f>
+        <v>2.8421052631578947</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17">
-        <v>1</v>
-      </c>
-      <c r="F35" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="G35" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="H35" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="I35" s="17">
-        <f t="shared" ref="I35:I37" si="2">E35*$C$3</f>
-        <v>16</v>
-      </c>
-      <c r="J35" s="18">
-        <f>IF(I35&gt;=$G$33,IF(I35&gt;=$H$33,H35*I35,G35*I35),I35*F35)</f>
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="22">
-        <v>132030</v>
-      </c>
-      <c r="E36" s="22">
-        <v>1</v>
-      </c>
-      <c r="F36" s="23">
-        <v>54</v>
-      </c>
-      <c r="G36" s="23">
-        <v>5.4</v>
-      </c>
-      <c r="H36" s="23">
-        <v>2.7</v>
-      </c>
-      <c r="I36" s="22">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="J36" s="23">
-        <f>F36/I36</f>
-        <v>3.375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="6">
-        <f>IF(I37&gt;=$G$33,IF(I37&gt;=$H$33,H37*I37,G37*I37),I37*F37)</f>
+      <c r="J35" s="6">
+        <f>IF(I35&gt;=$G$31,IF(I35&gt;=$H$31,H35*I35,G35*I35),I35*F35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8">
-        <f>SUM(J34:J37)</f>
-        <v>113.77500000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="F40" s="15" t="str">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8">
+        <f>SUM(J32:J35)</f>
+        <v>133.94210526315788</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="F38" s="27" t="str">
         <f>F5</f>
         <v>Price per piece for</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>10</v>
+      </c>
+      <c r="H39" s="4">
+        <v>20</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="20">
+        <v>1</v>
+      </c>
+      <c r="F40" s="24">
+        <v>4.32</v>
+      </c>
+      <c r="G40" s="24">
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="H40" s="24">
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="I40" s="20">
+        <f>E40*$C$3</f>
+        <v>19</v>
+      </c>
+      <c r="J40" s="21">
+        <f>IF(I40&gt;=$G$39,IF(I40&gt;=$H$39,H40*I40,G40*I40),I40*F40)</f>
+        <v>72.731999999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4">
-        <v>10</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>10</v>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20">
+        <v>2</v>
+      </c>
+      <c r="F41" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="G41" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="H41" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="I41" s="20">
+        <f t="shared" ref="I41:I43" si="3">E41*$C$3</f>
+        <v>38</v>
+      </c>
+      <c r="J41" s="21">
+        <f>IF(I41&gt;=$G$39,IF(I41&gt;=$H$39,H41*I41,G41*I41),I41*F41)</f>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="22">
-        <v>1</v>
-      </c>
-      <c r="F42" s="26">
-        <v>4.32</v>
-      </c>
-      <c r="G42" s="26">
-        <v>3.8279999999999998</v>
-      </c>
-      <c r="H42" s="26">
-        <v>3.8279999999999998</v>
-      </c>
-      <c r="I42" s="22">
-        <f>E42*$C$3</f>
-        <v>16</v>
-      </c>
-      <c r="J42" s="23">
-        <f>IF(I42&gt;=$G$41,IF(I42&gt;=$H$41,H42*I42,G42*I42),I42*F42)</f>
-        <v>61.247999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22">
-        <v>2</v>
-      </c>
-      <c r="F43" s="26">
-        <v>3.5</v>
-      </c>
-      <c r="G43" s="26">
-        <v>3.5</v>
-      </c>
-      <c r="H43" s="26">
-        <v>3.5</v>
-      </c>
-      <c r="I43" s="22">
-        <f t="shared" ref="I43:I45" si="3">E43*$C$3</f>
-        <v>32</v>
-      </c>
-      <c r="J43" s="23">
-        <f>IF(I43&gt;=$G$41,IF(I43&gt;=$H$41,H43*I43,G43*I43),I43*F43)</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5">
         <v>0</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="5">
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J44" s="6">
-        <f>IF(I44&gt;=$G$41,IF(I44&gt;=$H$41,H44*I44,G44*I44),I44*F44)</f>
+      <c r="J42" s="6">
+        <f>IF(I42&gt;=$G$39,IF(I42&gt;=$H$39,H42*I42,G42*I42),I42*F42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="5">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J45" s="6">
-        <f>IF(I45&gt;=$G$41,IF(I45&gt;=$H$41,H45*I45,G45*I45),I45*F45)</f>
+      <c r="J43" s="6">
+        <f>IF(I43&gt;=$G$39,IF(I43&gt;=$H$39,H43*I43,G43*I43),I43*F43)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="8">
-        <f>SUM(J42:J45)</f>
-        <v>173.24799999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="F48" s="15" t="str">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="8">
+        <f>SUM(J40:J43)</f>
+        <v>205.732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="F46" s="27" t="str">
         <f>F5</f>
         <v>Price per piece for</v>
       </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>10</v>
+      </c>
+      <c r="H47" s="4">
+        <v>20</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15">
+        <v>1</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="15">
+        <f>E48*$C$3</f>
+        <v>19</v>
+      </c>
+      <c r="J48" s="16">
+        <f>IF(I48&gt;=$G$47,IF(I48&gt;=$H$47,H48*I48,G48*I48),I48*F48)</f>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15">
+        <v>1</v>
+      </c>
+      <c r="F49" s="25">
+        <v>50</v>
+      </c>
+      <c r="G49" s="25">
+        <f>F49/G47</f>
         <v>5</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4">
-        <v>10</v>
-      </c>
-      <c r="H49" s="4">
-        <v>20</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>10</v>
+      <c r="H49" s="25">
+        <f>F49/H47</f>
+        <v>2.5</v>
+      </c>
+      <c r="I49" s="15">
+        <f t="shared" ref="I49:I51" si="4">E49*$C$3</f>
+        <v>19</v>
+      </c>
+      <c r="J49" s="16">
+        <f>IF(I49&gt;=$G$47,IF(I49&gt;=$H$47,H49*I49,G49*I49),I49*F49)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17">
-        <v>1</v>
-      </c>
-      <c r="F50" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G50" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H50" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I50" s="17">
-        <f>E50*$C$3</f>
-        <v>16</v>
-      </c>
-      <c r="J50" s="18">
-        <f>IF(I50&gt;=$G$49,IF(I50&gt;=$H$49,H50*I50,G50*I50),I50*F50)</f>
-        <v>8</v>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14">
+        <f>F50/G47</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
+        <f>F50/H47</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="J50" s="6">
+        <f>IF(I50&gt;=$G$47,IF(I50&gt;=$H$47,H50*I50,G50*I50),I50*F50)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17">
-        <v>1</v>
-      </c>
-      <c r="F51" s="27">
-        <v>50</v>
-      </c>
-      <c r="G51" s="27">
-        <f>F51/G49</f>
-        <v>5</v>
-      </c>
-      <c r="H51" s="27">
-        <f>F51/H49</f>
-        <v>2.5</v>
-      </c>
-      <c r="I51" s="17">
-        <f t="shared" ref="I51:I53" si="4">E51*$C$3</f>
-        <v>16</v>
-      </c>
-      <c r="J51" s="18">
-        <f>IF(I51&gt;=$G$49,IF(I51&gt;=$H$49,H51*I51,G51*I51),I51*F51)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5">
-        <v>1</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14">
-        <f>F52/G49</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="14">
-        <f>F52/H49</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="5">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="J52" s="6">
-        <f>IF(I52&gt;=$G$49,IF(I52&gt;=$H$49,H52*I52,G52*I52),I52*F52)</f>
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="5">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J53" s="6">
-        <f>IF(I53&gt;=$G$49,IF(I53&gt;=$H$49,H53*I53,G53*I53),I53*F53)</f>
+      <c r="J51" s="6">
+        <f>IF(I51&gt;=$G$47,IF(I51&gt;=$H$47,H51*I51,G51*I51),I51*F51)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="8">
+        <f>SUM(J48:J51)</f>
+        <v>104.5</v>
+      </c>
+    </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="8">
-        <f>SUM(J50:J53)</f>
-        <v>88</v>
+      <c r="A54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="8">
+        <f>J28</f>
+        <v>284.51078947368421</v>
+      </c>
+      <c r="D55" s="9">
+        <f>C55/$C$3</f>
+        <v>14.974252077562326</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>12</v>
+      <c r="A56" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="8">
+        <f>J36</f>
+        <v>133.94210526315788</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" ref="D56:D58" si="5">C56/$C$3</f>
+        <v>7.0495844875346254</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="8">
-        <f>J30</f>
-        <v>224.04250000000002</v>
+        <f>J44</f>
+        <v>205.732</v>
       </c>
       <c r="D57" s="9">
-        <f>C57/$C$3</f>
-        <v>14.002656250000001</v>
+        <f t="shared" si="5"/>
+        <v>10.827999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="8">
-        <f>J38</f>
-        <v>113.77500000000001</v>
+        <f>J52</f>
+        <v>104.5</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" ref="D58:D60" si="5">C58/$C$3</f>
-        <v>7.1109375000000004</v>
+        <f t="shared" si="5"/>
+        <v>5.5</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="8">
-        <f>J46</f>
-        <v>173.24799999999999</v>
-      </c>
-      <c r="D59" s="9">
-        <f t="shared" si="5"/>
-        <v>10.827999999999999</v>
-      </c>
+        <f>SUM(C55:C58)</f>
+        <v>728.68489473684212</v>
+      </c>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B60" s="12"/>
-      <c r="C60" s="8">
-        <f>J54</f>
-        <v>88</v>
-      </c>
-      <c r="D60" s="9">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="8">
-        <f>SUM(C57:C60)</f>
-        <v>599.06549999999993</v>
-      </c>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="10">
-        <f>C61/C3</f>
-        <v>37.441593749999996</v>
+      <c r="C60" s="10">
+        <f>C59/C3</f>
+        <v>38.351836565096953</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="F46:H46"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>